--- a/test-scenario/android_automation_test_scenario.xlsx
+++ b/test-scenario/android_automation_test_scenario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing QA\Stockbit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing QA\Stockbit\android-automation-test\test-scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFEACD3-813A-4B85-BA7D-9EDB0E4C734A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48748E1C-3634-4B84-916E-DCDA7CA16C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B2D1015F-522C-462C-8675-E5934B2E1A50}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{B2D1015F-522C-462C-8675-E5934B2E1A50}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Checkout" sheetId="4" r:id="rId4"/>
     <sheet name="Payment" sheetId="6" r:id="rId5"/>
     <sheet name="Review order" sheetId="7" r:id="rId6"/>
-    <sheet name="case not included in automation" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="193">
   <si>
     <t>Test case ID</t>
   </si>
@@ -607,12 +606,6 @@
   </si>
   <si>
     <t xml:space="preserve">Verify deliver address </t>
-  </si>
-  <si>
-    <t>verify price x quantity per product in review order page</t>
-  </si>
-  <si>
-    <t>verify address line 2 on deliver address and billing address</t>
   </si>
   <si>
     <t>Fill the shipping address then proceed the payment</t>
@@ -756,16 +749,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -777,16 +767,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -1124,21 +1110,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C4F2F1-E4F4-4B58-9455-710600CC6F4D}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="30.140625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="1"/>
+    <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="30.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1151,10 +1137,10 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1162,372 +1148,372 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
+      <c r="G15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4">
+      <c r="F25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4">
-        <v>2</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
-        <v>3</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1545,18 +1531,18 @@
       <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="30.140625" style="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" style="1"/>
+    <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="30.109375" style="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1569,10 +1555,10 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1580,247 +1566,247 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>4</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>4</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
         <v>5</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1838,19 +1824,19 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1863,10 +1849,10 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1874,695 +1860,695 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7" t="s">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4" t="s">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4" t="s">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <v>4</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>5</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="8" t="s">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>1</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>3</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
         <v>4</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
         <v>5</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
         <v>6</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="8" t="s">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8" t="s">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>1</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>2</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>3</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4">
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
         <v>4</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
         <v>5</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="8" t="s">
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="H33" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5">
         <v>1</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="8" t="s">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
         <v>2</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="8" t="s">
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6">
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5">
         <v>3</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="8" t="s">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5">
         <v>4</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="8" t="s">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5">
         <v>5</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="8" t="s">
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6">
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5">
         <v>6</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="8" t="s">
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6">
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5">
         <v>7</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6">
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5">
         <v>8</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6">
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5">
         <v>9</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H49" s="6"/>
+      <c r="H49" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2580,19 +2566,19 @@
       <selection activeCell="D9" sqref="D9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2605,10 +2591,10 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2616,129 +2602,129 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4" t="s">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4" t="s">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4" t="s">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>2</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2756,19 +2742,19 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2781,10 +2767,10 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2792,141 +2778,141 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4" t="s">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4" t="s">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>5</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>4</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4" t="s">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>6</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2940,23 +2926,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3118AF2A-033B-482A-B1AB-54A9CBD580FC}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="38.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2969,10 +2955,10 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2980,468 +2966,468 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8" t="s">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="F13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="F15" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="G20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="8" t="s">
+      <c r="F24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="11">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
         <v>2</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="11">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
+      <c r="F26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="31" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="5">
         <v>4</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8" t="s">
+      <c r="F34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="11">
-        <v>5</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="4" t="s">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="6">
-        <v>4</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H35" s="6"/>
+      <c r="H35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3449,29 +3435,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB27A48-5F66-47EC-AFDA-EE7CC1DB21E3}">
-  <dimension ref="B2:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>